--- a/patrolReports/Cobia_ship_contacts.xlsx
+++ b/patrolReports/Cobia_ship_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmkna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9BD18D-E73F-47D9-BAE5-C6A7531B2B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6200C62E-9002-4EBC-ADC5-38877AFEF317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{39974911-E1F4-40E2-B9D0-8DA4AEEFF7E4}"/>
   </bookViews>
@@ -947,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358CF676-EBDB-4D8D-8710-B47470AAB56F}">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
